--- a/Prices/citilink/citilink--category--May-20--1.xlsx
+++ b/Prices/citilink/citilink--category--May-20--1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Shulya403_works\Ya-parse\Prices\citilink\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1798,8 +1803,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1870,18 +1875,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1919,9 +1932,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1953,9 +1966,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1987,9 +2001,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2162,14 +2177,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2297,7 +2314,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2361,7 +2378,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2425,7 +2442,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2457,7 +2474,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2489,7 +2506,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2521,7 +2538,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2553,7 +2570,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2585,7 +2602,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2617,7 +2634,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2649,7 +2666,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2681,7 +2698,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2713,7 +2730,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2777,7 +2794,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2809,7 +2826,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2841,7 +2858,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2873,7 +2890,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2905,7 +2922,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2937,7 +2954,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2969,7 +2986,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3001,7 +3018,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3033,7 +3050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3065,7 +3082,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3097,7 +3114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3193,7 +3210,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3225,7 +3242,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3321,7 +3338,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3449,7 +3466,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3545,7 +3562,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3577,7 +3594,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3673,7 +3690,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3705,7 +3722,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3737,7 +3754,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3769,7 +3786,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3801,7 +3818,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3833,7 +3850,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3961,7 +3978,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3993,7 +4010,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4025,7 +4042,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4057,7 +4074,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4089,7 +4106,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4121,7 +4138,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4153,7 +4170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4185,7 +4202,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4217,7 +4234,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4249,7 +4266,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4281,7 +4298,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4313,7 +4330,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4345,7 +4362,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4377,7 +4394,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4409,7 +4426,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4441,7 +4458,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4473,7 +4490,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4505,7 +4522,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4537,7 +4554,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4569,7 +4586,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4601,7 +4618,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4633,7 +4650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4665,7 +4682,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4697,7 +4714,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4729,7 +4746,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4761,7 +4778,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4793,7 +4810,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4825,7 +4842,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4857,7 +4874,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4953,7 +4970,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4985,7 +5002,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5017,7 +5034,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5049,7 +5066,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5081,7 +5098,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5145,7 +5162,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5177,7 +5194,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5241,7 +5258,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5305,7 +5322,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5337,7 +5354,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5369,7 +5386,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5401,7 +5418,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5433,7 +5450,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5497,7 +5514,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5529,7 +5546,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5593,7 +5610,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5657,7 +5674,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5689,7 +5706,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5721,7 +5738,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5753,7 +5770,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5785,7 +5802,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5817,7 +5834,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5849,7 +5866,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5881,7 +5898,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5913,7 +5930,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5945,7 +5962,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5977,7 +5994,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6009,7 +6026,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6041,7 +6058,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6073,7 +6090,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6169,7 +6186,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6201,7 +6218,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6233,7 +6250,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6265,7 +6282,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6297,7 +6314,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6329,7 +6346,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6393,7 +6410,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6425,7 +6442,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6457,7 +6474,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6489,7 +6506,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6521,7 +6538,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6553,7 +6570,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6585,7 +6602,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6617,7 +6634,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6649,7 +6666,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6681,7 +6698,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6713,7 +6730,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6745,7 +6762,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6777,7 +6794,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6809,7 +6826,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6841,7 +6858,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6873,7 +6890,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6905,7 +6922,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6937,7 +6954,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7001,7 +7018,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7033,7 +7050,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7065,7 +7082,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7097,7 +7114,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7129,7 +7146,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7161,7 +7178,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7193,7 +7210,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7225,7 +7242,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7257,7 +7274,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7289,7 +7306,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7321,7 +7338,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7353,7 +7370,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7385,7 +7402,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7417,7 +7434,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7449,7 +7466,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7481,7 +7498,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7513,7 +7530,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7545,7 +7562,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7577,7 +7594,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7609,7 +7626,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7641,7 +7658,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7673,7 +7690,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7705,7 +7722,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7737,7 +7754,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7769,7 +7786,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7801,7 +7818,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7833,7 +7850,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7865,7 +7882,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7897,7 +7914,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7929,7 +7946,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7961,7 +7978,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7993,7 +8010,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8025,7 +8042,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8057,7 +8074,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8089,7 +8106,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8121,7 +8138,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8153,7 +8170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8185,7 +8202,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8217,7 +8234,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8249,7 +8266,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8281,7 +8298,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8313,7 +8330,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8345,7 +8362,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8377,7 +8394,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8409,7 +8426,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8441,7 +8458,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8473,7 +8490,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8505,7 +8522,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8569,7 +8586,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8601,7 +8618,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8633,7 +8650,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8665,7 +8682,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8697,7 +8714,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8729,7 +8746,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8761,7 +8778,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8793,7 +8810,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8825,7 +8842,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8857,7 +8874,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8889,7 +8906,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8921,7 +8938,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8953,7 +8970,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8985,7 +9002,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9017,7 +9034,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9049,7 +9066,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9081,7 +9098,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9113,7 +9130,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9145,7 +9162,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9177,7 +9194,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9209,7 +9226,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
